--- a/regionseng/4/business sector/by size.xlsx
+++ b/regionseng/4/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0B2F1-32CE-4E4E-8525-776D037F00B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12975" windowHeight="8010"/>
+    <workbookView xWindow="255" yWindow="75" windowWidth="14235" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -254,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -289,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -479,7 +514,7 @@
     <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -488,14 +523,14 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -504,14 +539,14 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2006</v>
@@ -558,8 +593,14 @@
       <c r="P5" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -608,8 +649,14 @@
       <c r="P6" s="4">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4">
+        <v>7484.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,8 +705,14 @@
       <c r="P7" s="5">
         <v>998.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5">
+        <v>2394.5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>4005.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +761,14 @@
       <c r="P8" s="5">
         <v>1688.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5">
+        <v>2099.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2586.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -758,12 +817,19 @@
       <c r="P9" s="5">
         <v>2905.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5">
+        <v>2990.5</v>
+      </c>
+      <c r="R9" s="5">
+        <v>4393.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
@@ -772,12 +838,14 @@
       <c r="N11" s="10"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>2006</v>
@@ -824,8 +892,14 @@
       <c r="P13" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -874,8 +948,14 @@
       <c r="P14" s="4">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4">
+        <v>5258.3</v>
+      </c>
+      <c r="R14" s="4">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -924,8 +1004,14 @@
       <c r="P15" s="5">
         <v>804.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5">
+        <v>1396.7</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1907.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -973,6 +1059,12 @@
       </c>
       <c r="P16" s="5">
         <v>1142.2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1433.8</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1774</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -1024,10 +1116,17 @@
       <c r="P17" s="5">
         <v>1881.9</v>
       </c>
+      <c r="Q17" s="5">
+        <v>2427.8000000000002</v>
+      </c>
+      <c r="R17" s="5">
+        <v>2800.7</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:24" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -1038,10 +1137,12 @@
       <c r="N19" s="10"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -1090,6 +1191,12 @@
       <c r="P21" s="1">
         <v>2020</v>
       </c>
+      <c r="Q21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -1140,6 +1247,12 @@
       <c r="P22" s="7">
         <v>68089.3</v>
       </c>
+      <c r="Q22" s="7">
+        <v>72973</v>
+      </c>
+      <c r="R22" s="7">
+        <v>75232</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1190,6 +1303,12 @@
       <c r="P23" s="8">
         <v>13303</v>
       </c>
+      <c r="Q23" s="8">
+        <v>14965</v>
+      </c>
+      <c r="R23" s="8">
+        <v>16850</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1240,6 +1359,12 @@
       <c r="P24" s="8">
         <v>15194.5</v>
       </c>
+      <c r="Q24" s="8">
+        <v>13958</v>
+      </c>
+      <c r="R24" s="8">
+        <v>16013</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1290,10 +1415,17 @@
       <c r="P25" s="8">
         <v>39591.800000000003</v>
       </c>
+      <c r="Q25" s="8">
+        <v>44051</v>
+      </c>
+      <c r="R25" s="8">
+        <v>42369</v>
+      </c>
     </row>
     <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -1304,10 +1436,12 @@
       <c r="N27" s="10"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -1356,6 +1490,12 @@
       <c r="P29" s="1">
         <v>2020</v>
       </c>
+      <c r="Q29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -1406,8 +1546,12 @@
       <c r="P30" s="4">
         <v>995.6</v>
       </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="Q30" s="4">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1258</v>
+      </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
@@ -1464,8 +1608,12 @@
       <c r="P31" s="5">
         <v>1130.7</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="Q31" s="5">
+        <v>1392.1</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1680.8</v>
+      </c>
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -1522,8 +1670,12 @@
       <c r="P32" s="5">
         <v>1244.2</v>
       </c>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="Q32" s="5">
+        <v>1406.1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1589.3</v>
+      </c>
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
@@ -1580,8 +1732,12 @@
       <c r="P33" s="5">
         <v>825.7</v>
       </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="Q33" s="5">
+        <v>820.8</v>
+      </c>
+      <c r="R33" s="5">
+        <v>915.8</v>
+      </c>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
